--- a/trunk/sqltoy-showcase/src/main/resources/mock/模拟数据.xlsx
+++ b/trunk/sqltoy-showcase/src/main/resources/mock/模拟数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\personal\sagacity-sqltoy\trunk\sqltoy-showcase\src\main\resources\mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48EB32-6B62-41FE-A092-560F8FD4C1AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2137891-D7A8-4AFF-A594-0235C712847E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机构信息表" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>机构编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,154 @@
   </si>
   <si>
     <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位职级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_CHANNEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SERVICE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X科技创新集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能设备研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物医药研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息化研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新动力研发中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤保障部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新能源研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机研究院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,15 +579,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB023089-E811-41F0-9373-CF56166FFCFE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,100 +614,202 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>100002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>100003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100003</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>100004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100004</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>100005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>100006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100006</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>100007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100007</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1">
+        <v>100008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100008</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1">
+        <v>100009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100009</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>100008</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1">
+        <v>100010</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100010</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>100008</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1">
+        <v>100011</v>
+      </c>
+      <c r="B12" s="1">
+        <v>100011</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E12" s="1">
+        <v>100001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -567,15 +819,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -586,18 +842,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -608,8 +886,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -620,8 +902,12 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -632,8 +918,12 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -644,8 +934,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -656,8 +950,12 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -668,8 +966,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -680,8 +982,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -692,8 +998,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -704,8 +1014,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -716,8 +1030,12 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -728,8 +1046,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -740,8 +1062,12 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -752,8 +1078,12 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -764,8 +1094,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -776,8 +1110,12 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -788,8 +1126,12 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -800,8 +1142,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -812,8 +1158,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -824,8 +1174,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -836,8 +1190,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -848,6 +1206,26 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -857,16 +1235,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4C554-FF55-4C9B-A8E3-982472532FE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/sqltoy-showcase/src/main/resources/mock/模拟数据.xlsx
+++ b/trunk/sqltoy-showcase/src/main/resources/mock/模拟数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\personal\sagacity-sqltoy\trunk\sqltoy-showcase\src\main\resources\mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2137891-D7A8-4AFF-A594-0235C712847E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0EB76E-DB93-4EE4-A526-A821F0803749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机构信息表" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>机构编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,121 @@
   </si>
   <si>
     <t>发动机研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0002</t>
+  </si>
+  <si>
+    <t>S0003</t>
+  </si>
+  <si>
+    <t>S0004</t>
+  </si>
+  <si>
+    <t>S0005</t>
+  </si>
+  <si>
+    <t>S0006</t>
+  </si>
+  <si>
+    <t>S0007</t>
+  </si>
+  <si>
+    <t>S0008</t>
+  </si>
+  <si>
+    <t>S0009</t>
+  </si>
+  <si>
+    <t>S0010</t>
+  </si>
+  <si>
+    <t>S0011</t>
+  </si>
+  <si>
+    <t>S0012</t>
+  </si>
+  <si>
+    <t>S0013</t>
+  </si>
+  <si>
+    <t>S0014</t>
+  </si>
+  <si>
+    <t>S0015</t>
+  </si>
+  <si>
+    <t>S0016</t>
+  </si>
+  <si>
+    <t>S0017</t>
+  </si>
+  <si>
+    <t>S0018</t>
+  </si>
+  <si>
+    <t>S0019</t>
+  </si>
+  <si>
+    <t>S0020</t>
+  </si>
+  <si>
+    <t>S0021</t>
+  </si>
+  <si>
+    <t>S0022</t>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪小春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李明雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李有才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓颖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURCHASE_SALE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购销标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB023089-E811-41F0-9373-CF56166FFCFE}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -822,7 +937,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -876,11 +991,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100002</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -888,15 +1013,29 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100003</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -905,12 +1044,20 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -924,9 +1071,15 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -940,9 +1093,15 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -956,8 +1115,12 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -972,8 +1135,12 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -988,8 +1155,12 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1004,8 +1175,12 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1020,8 +1195,12 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1036,8 +1215,12 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1052,8 +1235,12 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1068,8 +1255,12 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1084,8 +1275,12 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1100,8 +1295,12 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1116,8 +1315,12 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1132,8 +1335,12 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1148,8 +1355,12 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1164,8 +1375,12 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1180,8 +1395,12 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1196,8 +1415,12 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1212,8 +1435,12 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1230,20 +1457,21 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB4C554-FF55-4C9B-A8E3-982472532FE3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="18.21875" customWidth="1"/>
@@ -1319,13 +1547,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1336,13 +1564,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1353,18 +1581,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
